--- a/18_アドレッシングモード/ansI.xlsx
+++ b/18_アドレッシングモード/ansI.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/Library/Mobile Documents/com~apple~CloudDocs/30_授業準備/12_基礎コンピュータ工学/2020/30_課題/18_アドレッシングモード/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/TecExercise/18_アドレッシングモード/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6920D7-4B90-F046-9C50-92303B81D791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC0B787-22AE-F14E-8883-E46912269543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="2560" windowWidth="23840" windowHeight="16040" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
+    <workbookView xWindow="15660" yWindow="500" windowWidth="23840" windowHeight="16040" activeTab="2" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="１枚目" sheetId="1" r:id="rId1"/>
     <sheet name="２枚目" sheetId="2" r:id="rId2"/>
+    <sheet name="3枚目" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'１枚目'!$A$1:$H$36</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="133">
   <si>
     <t>基礎コンピュータ工学　演習課題</t>
     <rPh sb="0" eb="2">
@@ -508,6 +509,115 @@
   </si>
   <si>
     <t>20 16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.18-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3) A番地からの5バイトのデータの中で，奇数の個数をL番地に求めるプログラム</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">バンチノ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ナカデ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キスウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コスウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">バンチニ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">モトメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ヒント：シフト命令を使用する）</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2,A,G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHRL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G0,#1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A4 13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19 16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B8 0F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33 01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0A 04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20 1B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -736,10 +840,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,11 +861,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -763,22 +870,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -993,10 +1091,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1892300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D7F93A-E3EB-8342-48DE-59CAF804691E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1181100"/>
+          <a:ext cx="1612900" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1034,7 +1181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1140,7 +1287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1282,7 +1429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1292,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32FF02A-0DAE-6D43-937B-6BF2FBA80F9E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1300,11 +1447,11 @@
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1312,14 +1459,14 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="16"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1333,7 +1480,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:7" s="8" customFormat="1">
+    <row r="3" spans="2:7" s="1" customFormat="1">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1354,490 +1501,489 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="28"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="19"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="19"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="19"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="19"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="19"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="19"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="19"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="19"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="19"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="19"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="19"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="30"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="30"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="30"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="30"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="30"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="30"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="30"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="30"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="30"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="30"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="30"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="31"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="5" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="20"/>
+      <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="5" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="20"/>
+      <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="22"/>
-      <c r="C35" s="6" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1865,19 +2011,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED3AE6D-595E-934E-A017-E6C3ECF8993A}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1885,14 +2031,14 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="16"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1906,7 +2052,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:7" s="14" customFormat="1">
+    <row r="3" spans="2:7" s="1" customFormat="1">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1927,494 +2073,493 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="28"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="19"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="19"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="19"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="19"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="19"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="19"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="19"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="19"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="19"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="19"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="19"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="30"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="30"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="30"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="30"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="30"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="30"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="30"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="30"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="30"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="30"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="30"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="30"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="31"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="25" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="5" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="20"/>
+      <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="22"/>
-      <c r="C35" s="6" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
+    <row r="36" spans="2:7">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2436,4 +2581,505 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A818513B-A995-9B41-B2A0-4AB8E96109A3}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="22"/>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23"/>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="23"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="23"/>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="23"/>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="23"/>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="23"/>
+      <c r="C15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="23"/>
+      <c r="C17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="23"/>
+      <c r="C18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="23"/>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="23"/>
+      <c r="C20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="23"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="23"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="23"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="23"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="23"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="23"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="23"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="23"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="23"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="24"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="20"/>
+      <c r="C34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:G36"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>